--- a/medicine/Psychotrope/Cappuccino_(café)/Cappuccino_(café).xlsx
+++ b/medicine/Psychotrope/Cappuccino_(café)/Cappuccino_(café).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cappuccino_(caf%C3%A9)</t>
+          <t>Cappuccino_(café)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le cappuccino est une préparation de café, à base de café expresso, mélangé avec du lait et coiffé d'une mousse de lait crémeuse (préalablement chauffé à la vapeur jusqu'à le faire mousser), sucré, et servi dans une grande tasse à café, éventuellement avec un effet artistique de latte art.
-Ne pas confondre avec ses nombreuses variantes : caffè macchiato, mocaccino (à la crème, chocolat, et cacao), latte, café frappé, café viennois (à la crème chantilly) ou irish coffee[1].
+Ne pas confondre avec ses nombreuses variantes : caffè macchiato, mocaccino (à la crème, chocolat, et cacao), latte, café frappé, café viennois (à la crème chantilly) ou irish coffee.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cappuccino_(caf%C3%A9)</t>
+          <t>Cappuccino_(café)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le café cappuccino né en Autriche était nommé kapuziner en allemand avant que le nom ne soit italianisé[2]. Kapuziner (et cappuccino) est doublement issu de la couleur « capucin » brun noisette-marron noyer, des habits traditionnels en bure à capuchon (petite capuche, cappucino) de l'ordre des frères mineurs capucins fondé en Italie au XVIe siècle, et du latin caputium, capuche, capuce en italien, cappuccino, petite capuche, en italien[3]. Le cappuccino tient donc son nom de la variation de la couleur noire du café, vers la couleur capucin-brun-marron[4], par ajout de mousse de lait crémeuse.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le café cappuccino né en Autriche était nommé kapuziner en allemand avant que le nom ne soit italianisé. Kapuziner (et cappuccino) est doublement issu de la couleur « capucin » brun noisette-marron noyer, des habits traditionnels en bure à capuchon (petite capuche, cappucino) de l'ordre des frères mineurs capucins fondé en Italie au XVIe siècle, et du latin caputium, capuche, capuce en italien, cappuccino, petite capuche, en italien. Le cappuccino tient donc son nom de la variation de la couleur noire du café, vers la couleur capucin-brun-marron, par ajout de mousse de lait crémeuse.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cappuccino_(caf%C3%A9)</t>
+          <t>Cappuccino_(café)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +558,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le café cappuccino dérive des cafés viennois de Vienne en Autriche, réalisés à base de crème fouettée ou crème chantilly du XVIe siècle. 
-Le mot kapuziner (capucin en allemand) apparaît pour la première fois à Vienne au XVIIIe siècle pour qualifier un café mélangé à de la crème ou du lait fouetté[5].
-Le kapuziner a ensuite été introduit en Italie du nord qui était sous domination autrichienne , et le nom à par la suite était italianisé[6].
+Le mot kapuziner (capucin en allemand) apparaît pour la première fois à Vienne au XVIIIe siècle pour qualifier un café mélangé à de la crème ou du lait fouetté.
+Le kapuziner a ensuite été introduit en Italie du nord qui était sous domination autrichienne , et le nom à par la suite était italianisé.
 Les cappuccinos modernes remontent à l'invention contemporaine des machines à expresso avec émulsionneur de mousse de lait, et à la démocratisation de la réfrigération des années 1950 d'après-guerre, qui permettent l'utilisation courante de lait frais dans les cafés et les restaurants.
-Selon l'historien Alberto Grandi, l'apparition du cappuccino en Italie est récente et correspond à une adaptation au goût des touristes allemands habitués à consommer du café au lait, chose rare en Italie avant les années 50[7].
+Selon l'historien Alberto Grandi, l'apparition du cappuccino en Italie est récente et correspond à une adaptation au goût des touristes allemands habitués à consommer du café au lait, chose rare en Italie avant les années 50.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cappuccino_(caf%C3%A9)</t>
+          <t>Cappuccino_(café)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Latte art</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le latte art est l'art répandu dans certains cafés et restaurants, de créer par un artiste Barista, des motifs décoratifs artistiques entre autres sur un cappuccino (avec un Championnat du Monde de Barista annuel, World Barista Championship[8]).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le latte art est l'art répandu dans certains cafés et restaurants, de créer par un artiste Barista, des motifs décoratifs artistiques entre autres sur un cappuccino (avec un Championnat du Monde de Barista annuel, World Barista Championship).
 </t>
         </is>
       </c>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cappuccino_(caf%C3%A9)</t>
+          <t>Cappuccino_(café)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Un cappuccino est réalisé par un barista, avec environ 25 à 30 ml de café expresso, et environ 100 à 180 ml de lait froid à environ 5 °C, monté en mousse avec de la vapeur, de préférence avec du lait entier, plus crémeux, qui permet une meilleure émulsion avec l'expresso.
 	Barista et machine à expresso
@@ -623,7 +643,7 @@
 			Café frappé.
 			Café viennois.
 			Gâteau au cappuccino.
-L'industrie agroalimentaire commercialisent avec succès par la grande distribution mondiale, et les distributeurs automatiques de café, de nombreuses marques de café cappuccino soluble instantané. Le cappuccino italien bénéficie d'une norme de certification de qualité depuis 2007[9].
+L'industrie agroalimentaire commercialisent avec succès par la grande distribution mondiale, et les distributeurs automatiques de café, de nombreuses marques de café cappuccino soluble instantané. Le cappuccino italien bénéficie d'une norme de certification de qualité depuis 2007.
 </t>
         </is>
       </c>
